--- a/data/trans_camb/P16A06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.665446026368533</v>
+        <v>-2.514199379196561</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05380490923230344</v>
+        <v>0.03042762317096354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.744496781034465</v>
+        <v>4.758605916584459</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9112777992982941</v>
+        <v>1.037909099460161</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.52572538863634</v>
+        <v>5.293848220905753</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.96469499111904</v>
+        <v>11.97164025559482</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0119718051526127</v>
+        <v>-0.0835534341444564</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.898399809095722</v>
+        <v>3.663396176698129</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.865416932877549</v>
+        <v>9.695632780102949</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4972900849087593</v>
+        <v>0.5134321760742635</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.293682515177347</v>
+        <v>4.204766349395587</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.14160793626674</v>
+        <v>10.22974718476802</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.149690807841142</v>
+        <v>5.253763314352894</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.05554975353775</v>
+        <v>10.87936451696162</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.12048059432204</v>
+        <v>17.1415624379839</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.802470638241508</v>
+        <v>2.816678192874311</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.44979003721159</v>
+        <v>7.299236633857127</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.62085283663583</v>
+        <v>13.63574714103661</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.9818347673195614</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.075423195522141</v>
+        <v>2.07542319552214</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5814321689469678</v>
+        <v>-0.5738809799935551</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.007542188984971273</v>
+        <v>0.002603527756908936</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.9776230049578134</v>
+        <v>1.051542374688255</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.112405148875499</v>
+        <v>0.1277213118685022</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6715068695529384</v>
+        <v>0.680069914412286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.478121797295205</v>
+        <v>1.465882644508476</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.001961269829717011</v>
+        <v>-0.01522279023618828</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6380903664554385</v>
+        <v>0.5838247681780501</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.547153732796958</v>
+        <v>1.567545270966892</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2141402557826171</v>
+        <v>0.1813510464779426</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.418701541676904</v>
+        <v>1.440572969761638</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.266758138221844</v>
+        <v>3.496592018444714</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8685651028958782</v>
+        <v>0.8660970290005141</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.777550875424262</v>
+        <v>1.792899098183596</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.812928055102288</v>
+        <v>2.816046957856679</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.557346408449106</v>
+        <v>0.5545375891126594</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.547717783430093</v>
+        <v>1.476766009294505</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.763642123943697</v>
+        <v>2.776402543941931</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.365687688640199</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.246607209323716</v>
+        <v>5.246607209323714</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.105556763504421</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3485456599755054</v>
+        <v>-0.2842739284425667</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3405827246853078</v>
+        <v>-0.3572426037378916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.85490854368596</v>
+        <v>1.770468797167273</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4715106653878179</v>
+        <v>0.7025414119078048</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.073927421094009</v>
+        <v>1.098796111554879</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.999964225044657</v>
+        <v>4.004162686186085</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3631715351262972</v>
+        <v>0.3118327649329802</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6210746644716656</v>
+        <v>0.5783170657066555</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.336692307877376</v>
+        <v>3.273427091502616</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.309933792152562</v>
+        <v>1.363544525063895</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.242709305961233</v>
+        <v>1.254296367085512</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.867748455006638</v>
+        <v>3.944444587090435</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.054125161551023</v>
+        <v>3.094116821735649</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.785696720792327</v>
+        <v>3.762704606237603</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.472303025199877</v>
+        <v>6.532476081593834</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.855174939753748</v>
+        <v>1.849960945570668</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.09937037710021</v>
+        <v>2.072233368572074</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.874266976437673</v>
+        <v>4.942911096461463</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.9571539655097616</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.122770017357128</v>
+        <v>2.122770017357127</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.6078437866483332</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2212089451861843</v>
+        <v>-0.1878058133042387</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2351624589221426</v>
+        <v>-0.2368152637133909</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.9271129195553574</v>
+        <v>0.9387544051022302</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1666110249382034</v>
+        <v>0.2013260128093738</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3079484825482869</v>
+        <v>0.3513159955466492</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.249867010869197</v>
+        <v>1.247200525168944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1624340007915187</v>
+        <v>0.1235990848803972</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2777647775817284</v>
+        <v>0.2535159976414667</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.456886299777357</v>
+        <v>1.459145561037882</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.606472374639584</v>
+        <v>1.631202923343842</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.429144438688086</v>
+        <v>1.434414935513534</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.321202129662041</v>
+        <v>4.579220154312954</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.706009767631927</v>
+        <v>1.58245091954753</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.954846322007468</v>
+        <v>1.967456263053694</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.412474034716971</v>
+        <v>3.479673440064074</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.273387459649232</v>
+        <v>1.163829348767208</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.42706974183111</v>
+        <v>1.432889131235402</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.259646454912764</v>
+        <v>3.405584959571082</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.8617700136979474</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.862242048538342</v>
+        <v>2.86224204853834</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.8717756159504132</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7642858408085325</v>
+        <v>-0.4745344538516226</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.462203895311144</v>
+        <v>-0.4377504911371877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.254467894726703</v>
+        <v>1.174785827662213</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.10802938284609</v>
+        <v>-1.132191401925044</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.4831915574648705</v>
+        <v>-0.6254890660848461</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.873130617207917</v>
+        <v>1.912331565304346</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.21968931431622</v>
+        <v>-0.313712927650726</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.02537791302647975</v>
+        <v>0.1235041198949432</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.038917007501312</v>
+        <v>2.013918740288895</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.996107364602253</v>
+        <v>3.321472425759858</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.565290555731413</v>
+        <v>2.431511093405618</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.67240772388316</v>
+        <v>4.588171432227377</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.232106287268437</v>
+        <v>3.267712396482136</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.774592111926376</v>
+        <v>3.66695665171706</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.653210396558009</v>
+        <v>5.555594744071025</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.643842791016677</v>
+        <v>2.508111253877153</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.554025007706341</v>
+        <v>2.469705602341281</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.590327665389775</v>
+        <v>4.595889624164593</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.8419730196880648</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.796489251633055</v>
+        <v>2.796489251633053</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4784717192140196</v>
@@ -1188,7 +1188,7 @@
         <v>0.8823072980774317</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2.103995200901296</v>
+        <v>2.103995200901295</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6490746015121531</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6376400729719227</v>
+        <v>-0.5115273215587191</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4176684020121311</v>
+        <v>-0.3930761137919498</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.604367811032773</v>
+        <v>0.4680872885094094</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4944693113467232</v>
+        <v>-0.5147608950017368</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2805411247339308</v>
+        <v>-0.2770243900621008</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5854997471352605</v>
+        <v>0.5680277472952568</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.177674649833872</v>
+        <v>-0.2493976152720628</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08315331603185436</v>
+        <v>0.01926744791303163</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.9111262205920984</v>
+        <v>0.9776770707822908</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.001311843057562</v>
+        <v>6.437863046822879</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.57421372528371</v>
+        <v>5.402544689467121</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>11.0344904240603</v>
+        <v>9.094092651824779</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.036042616716887</v>
+        <v>3.783640017073561</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.673927360376248</v>
+        <v>3.633903556838625</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.184247284745334</v>
+        <v>5.793669402633578</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.839958627822079</v>
+        <v>2.526573795193732</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.694175628257981</v>
+        <v>2.744832328010994</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>5.068950694826309</v>
+        <v>5.345594145829809</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6520613778636903</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.183050486248603</v>
+        <v>3.183050486248604</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.102155332205565</v>
@@ -1297,7 +1297,7 @@
         <v>3.353952970736646</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.217514912823542</v>
+        <v>6.217514912823543</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.094081586919537</v>
@@ -1306,7 +1306,7 @@
         <v>2.040602035438504</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.757007127736179</v>
+        <v>4.757007127736178</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7059796501871353</v>
+        <v>-0.6855204799993163</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.04632538381186751</v>
+        <v>-0.115399347230413</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.392194226311127</v>
+        <v>2.35780575515855</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.013464931624629</v>
+        <v>1.081185274528295</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.129520664647121</v>
+        <v>2.119121528002745</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.968465635922233</v>
+        <v>5.279660058743641</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4334100889920421</v>
+        <v>0.36477923873995</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.3928503795734</v>
+        <v>1.359834102981206</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.102463585081655</v>
+        <v>4.032502930098452</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7563275956339599</v>
+        <v>0.8248306296613448</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.44494198196737</v>
+        <v>1.315617424076995</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.135597591748012</v>
+        <v>4.09207014582015</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.157217562658825</v>
+        <v>3.189497040293287</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.562252222476431</v>
+        <v>4.499655444295112</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.157286346953899</v>
+        <v>7.300102433280023</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.812041354983482</v>
+        <v>1.706965754263565</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.736066064929253</v>
+        <v>2.723737108318207</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.481284885268817</v>
+        <v>5.442733797974062</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.8056796060872776</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.493558499332571</v>
+        <v>1.493558499332572</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3541322643428579</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3161592026166359</v>
+        <v>-0.3003990221920171</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02297791382185771</v>
+        <v>-0.04975415758541221</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.000200018093613</v>
+        <v>0.9736191243440859</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2162200439265588</v>
+        <v>0.223572651816954</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4562573987397438</v>
+        <v>0.4381177012996702</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.009936117367603</v>
+        <v>1.119234846864776</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1240708199884174</v>
+        <v>0.1096217808641271</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4032695355003746</v>
+        <v>0.3930972553866665</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.201821875612151</v>
+        <v>1.157814777159386</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.441240907642621</v>
+        <v>0.4987144178928958</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8878625322426508</v>
+        <v>0.8133375381610979</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.519931287136373</v>
+        <v>2.447597126467068</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8500459910692243</v>
+        <v>0.8472814458239879</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.258861464740711</v>
+        <v>1.217132391134593</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.948634054236843</v>
+        <v>2.007729240005399</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6590055350334618</v>
+        <v>0.6038702323944267</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9712958344452106</v>
+        <v>0.9731757760670157</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.985609926846523</v>
+        <v>1.946976564826651</v>
       </c>
     </row>
     <row r="28">
